--- a/excel work rasna.xlsx
+++ b/excel work rasna.xlsx
@@ -4,26 +4,26 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" activeTab="4"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" firstSheet="11" activeTab="15"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet4" sheetId="4" r:id="rId3"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId4"/>
-    <sheet name="Sheet5" sheetId="5" r:id="rId5"/>
-    <sheet name="Sheet6" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet7" sheetId="7" r:id="rId7"/>
-    <sheet name="Sheet8" sheetId="8" r:id="rId8"/>
-    <sheet name="Sheet9" sheetId="9" r:id="rId9"/>
-    <sheet name="Sheet10" sheetId="10" r:id="rId10"/>
-    <sheet name="Sheet11" sheetId="11" r:id="rId11"/>
-    <sheet name="Sheet12" sheetId="12" r:id="rId12"/>
-    <sheet name="Sheet13" sheetId="13" r:id="rId13"/>
-    <sheet name="Sheet14" sheetId="14" r:id="rId14"/>
-    <sheet name="Sheet15" sheetId="15" r:id="rId15"/>
-    <sheet name="Sheet16" sheetId="16" r:id="rId16"/>
-    <sheet name="Sheet17" sheetId="17" r:id="rId17"/>
+    <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
+    <sheet name="BASIC" sheetId="2" r:id="rId2"/>
+    <sheet name="TEXT TO COLUMN" sheetId="4" r:id="rId3"/>
+    <sheet name="TIPS AND TRICKS" sheetId="3" r:id="rId4"/>
+    <sheet name="TEXT FUNCTIONS" sheetId="5" r:id="rId5"/>
+    <sheet name="LOGICAL OPERATOR" sheetId="6" r:id="rId6"/>
+    <sheet name="LOGICAL FUNCTIONS" sheetId="7" r:id="rId7"/>
+    <sheet name="DATE FUNCTIONS" sheetId="8" r:id="rId8"/>
+    <sheet name="NAME RANGE" sheetId="9" r:id="rId9"/>
+    <sheet name="COUNT IF FUNCTION" sheetId="10" r:id="rId10"/>
+    <sheet name="STATISTICAL FUNCTION" sheetId="11" r:id="rId11"/>
+    <sheet name="VLOOKUP" sheetId="12" r:id="rId12"/>
+    <sheet name="HYPERLINK" sheetId="13" r:id="rId13"/>
+    <sheet name="CHARTS" sheetId="14" r:id="rId14"/>
+    <sheet name="FINANCE FUNCTION" sheetId="15" r:id="rId15"/>
+    <sheet name="DROPDOWN AND BARCODE" sheetId="16" r:id="rId16"/>
+    <sheet name="MACROS" sheetId="17" r:id="rId17"/>
     <sheet name="Sheet18" sheetId="18" r:id="rId18"/>
     <sheet name="Sheet19" sheetId="19" r:id="rId19"/>
     <sheet name="Sheet20" sheetId="20" r:id="rId20"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="331" uniqueCount="293">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="290">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform a mathematical calculations on statistical data and totaling long columns of numbers or determining percentages and averages
 </t>
@@ -244,15 +244,6 @@
   </si>
   <si>
     <t>CONCATENATE                           UPPER                                           LOWER                                         LENGTH</t>
-  </si>
-  <si>
-    <t>ALON MUSK</t>
-  </si>
-  <si>
-    <t>a</t>
-  </si>
-  <si>
-    <t>b</t>
   </si>
   <si>
     <t>DEFENATIONS?</t>
@@ -1260,23 +1251,14 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1289,6 +1271,15 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1399,7 +1390,7 @@
           <c:order val="0"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet14!$E$8:$E$10</c:f>
+              <c:f>CHARTS!$E$8:$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1416,7 +1407,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet14!$F$8:$F$10</c:f>
+              <c:f>CHARTS!$F$8:$F$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1438,7 +1429,7 @@
           <c:order val="1"/>
           <c:cat>
             <c:strRef>
-              <c:f>Sheet14!$E$8:$E$10</c:f>
+              <c:f>CHARTS!$E$8:$E$10</c:f>
               <c:strCache>
                 <c:ptCount val="3"/>
                 <c:pt idx="0">
@@ -1455,7 +1446,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet14!$G$8:$G$10</c:f>
+              <c:f>CHARTS!$G$8:$G$10</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="3"/>
@@ -1472,24 +1463,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="68904832"/>
-        <c:axId val="68906368"/>
+        <c:axId val="70674304"/>
+        <c:axId val="70675840"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="68904832"/>
+        <c:axId val="70674304"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68906368"/>
+        <c:crossAx val="70675840"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="68906368"/>
+        <c:axId val="70675840"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1497,7 +1488,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="68904832"/>
+        <c:crossAx val="70674304"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1506,7 +1497,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000056" l="0.70000000000000051" r="0.70000000000000051" t="0.75000000000000056" header="0.30000000000000027" footer="0.30000000000000027"/>
+    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2967,7 +2958,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N51"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="Q19" sqref="Q19"/>
     </sheetView>
   </sheetViews>
@@ -3371,10 +3362,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L16"/>
+  <dimension ref="A1:L20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G6" sqref="G6"/>
+      <selection activeCell="G21" sqref="G21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3384,7 +3375,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="68" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -3394,19 +3385,19 @@
     </row>
     <row r="3" spans="1:12">
       <c r="B3" s="17" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="21" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="G4" s="17">
         <f>COUNTIF(B6:B9,"APPLES")</f>
         <v>2</v>
       </c>
       <c r="H4" s="33" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="I4" s="33"/>
       <c r="J4" s="33"/>
@@ -3414,7 +3405,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="B5" s="21" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="G5">
         <f>COUNTIF(B8:B10,"BISCUITS")</f>
@@ -3427,7 +3418,7 @@
     </row>
     <row r="6" spans="1:12">
       <c r="B6" s="21" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="G6">
         <f>COUNTIF(B4:B12,"FANTA")</f>
@@ -3436,15 +3427,15 @@
     </row>
     <row r="7" spans="1:12">
       <c r="B7" s="21" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:12">
       <c r="B8" s="22" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="G8" s="33" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="H8" s="33"/>
       <c r="I8" s="33"/>
@@ -3454,10 +3445,10 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="21" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="G9" s="71" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="H9" s="72"/>
       <c r="I9" s="72"/>
@@ -3467,7 +3458,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="21" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
       <c r="G10" s="72"/>
       <c r="H10" s="72"/>
@@ -3478,7 +3469,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="21" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
       <c r="G11" s="72"/>
       <c r="H11" s="72"/>
@@ -3489,7 +3480,7 @@
     </row>
     <row r="12" spans="1:12">
       <c r="B12" s="21" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
       <c r="G12" s="72"/>
       <c r="H12" s="72"/>
@@ -3529,6 +3520,18 @@
       <c r="J16" s="72"/>
       <c r="K16" s="72"/>
       <c r="L16" s="72"/>
+    </row>
+    <row r="19" spans="7:7">
+      <c r="G19">
+        <f>COUNTIF(B4:B10,"milk")</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="7:7">
+      <c r="G20">
+        <f>COUNTIF(B6:B11,"coco cola")</f>
+        <v>1</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3546,14 +3549,14 @@
   <dimension ref="A1:P15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K12" sqref="K12"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:16">
       <c r="A1" s="64" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -3563,23 +3566,23 @@
     </row>
     <row r="3" spans="1:16">
       <c r="G3" s="64" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="H3" s="64"/>
       <c r="I3" s="64"/>
     </row>
     <row r="4" spans="1:16">
       <c r="G4" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="H4">
         <v>50</v>
       </c>
       <c r="I4" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="M4" s="74" t="s">
-        <v>152</v>
+        <v>149</v>
       </c>
       <c r="N4" s="75"/>
       <c r="O4" s="75"/>
@@ -3587,13 +3590,13 @@
     </row>
     <row r="5" spans="1:16">
       <c r="G5" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H5">
         <v>30</v>
       </c>
       <c r="I5" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M5" s="75"/>
       <c r="N5" s="75"/>
@@ -3602,13 +3605,13 @@
     </row>
     <row r="6" spans="1:16">
       <c r="G6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="H6">
         <v>40</v>
       </c>
       <c r="I6" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M6" s="75"/>
       <c r="N6" s="75"/>
@@ -3617,13 +3620,13 @@
     </row>
     <row r="7" spans="1:16">
       <c r="G7" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="H7">
         <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="M7" s="75"/>
       <c r="N7" s="75"/>
@@ -3632,18 +3635,18 @@
     </row>
     <row r="8" spans="1:16">
       <c r="G8" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H8">
         <v>30</v>
       </c>
       <c r="I8" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="10" spans="1:16">
       <c r="E10" s="73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F10" s="33"/>
     </row>
@@ -3651,7 +3654,7 @@
       <c r="E11" s="33"/>
       <c r="F11" s="33"/>
       <c r="G11" s="68" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="H11" s="68"/>
       <c r="I11" s="68"/>
@@ -3663,7 +3666,7 @@
     </row>
     <row r="12" spans="1:16">
       <c r="G12" s="73" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
       <c r="H12" s="33"/>
       <c r="I12" s="33"/>
@@ -3681,7 +3684,7 @@
     </row>
     <row r="14" spans="1:16">
       <c r="G14" s="68" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="H14" s="68"/>
       <c r="I14" s="68"/>
@@ -3692,12 +3695,12 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="G15" s="54" t="s">
-        <v>151</v>
-      </c>
-      <c r="H15" s="54"/>
-      <c r="I15" s="54"/>
-      <c r="J15" s="54"/>
+      <c r="G15" s="51" t="s">
+        <v>148</v>
+      </c>
+      <c r="H15" s="51"/>
+      <c r="I15" s="51"/>
+      <c r="J15" s="51"/>
       <c r="K15">
         <f>AVERAGEIF(H4:H8,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -3723,7 +3726,7 @@
   <dimension ref="A1:L12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15:B17"/>
+      <selection activeCell="D25" sqref="D25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -3734,7 +3737,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="76" t="s">
-        <v>153</v>
+        <v>150</v>
       </c>
       <c r="B1" s="76"/>
       <c r="C1" s="76"/>
@@ -3746,169 +3749,169 @@
     </row>
     <row r="3" spans="1:12">
       <c r="A3" s="18" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
     </row>
     <row r="4" spans="1:12">
       <c r="A4" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B4" t="str">
-        <f>VLOOKUP(A4,A9:D12,3, 0)</f>
+        <f>VLOOKUP(A4,A9:D12,3,0)</f>
         <v>tadong</v>
       </c>
     </row>
     <row r="5" spans="1:12">
       <c r="A5" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B5" s="5">
         <f>VLOOKUP(A5,A9:D12,4,0)</f>
         <v>674539430</v>
       </c>
-      <c r="F5" s="51" t="s">
-        <v>169</v>
-      </c>
-      <c r="G5" s="52"/>
-      <c r="H5" s="52"/>
-      <c r="I5" s="52"/>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
+      <c r="F5" s="48" t="s">
+        <v>166</v>
+      </c>
+      <c r="G5" s="49"/>
+      <c r="H5" s="49"/>
+      <c r="I5" s="49"/>
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B6" s="5" t="str">
         <f>VLOOKUP(A6,A9:D12,2,0)</f>
         <v>per@gmail.com</v>
       </c>
-      <c r="F6" s="52"/>
-      <c r="G6" s="52"/>
-      <c r="H6" s="52"/>
-      <c r="I6" s="52"/>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B7" s="24" t="str">
         <f>VLOOKUP(A7,A9:D12,3,0)</f>
         <v>tadong</v>
       </c>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52"/>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
+      <c r="F7" s="49"/>
+      <c r="G7" s="49"/>
+      <c r="H7" s="49"/>
+      <c r="I7" s="49"/>
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="33" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="F8" s="52"/>
-      <c r="G8" s="52"/>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
+      <c r="F8" s="49"/>
+      <c r="G8" s="49"/>
+      <c r="H8" s="49"/>
+      <c r="I8" s="49"/>
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="B9" s="23" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C9" t="s">
-        <v>165</v>
+        <v>162</v>
       </c>
       <c r="D9">
         <v>231132213</v>
       </c>
-      <c r="F9" s="52"/>
-      <c r="G9" s="52"/>
-      <c r="H9" s="52"/>
-      <c r="I9" s="52"/>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
+      <c r="F9" s="49"/>
+      <c r="G9" s="49"/>
+      <c r="H9" s="49"/>
+      <c r="I9" s="49"/>
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
+        <v>157</v>
+      </c>
+      <c r="B10" s="23" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="23" t="s">
+      <c r="C10" t="s">
         <v>163</v>
-      </c>
-      <c r="C10" t="s">
-        <v>166</v>
       </c>
       <c r="D10">
         <v>674539430</v>
       </c>
-      <c r="F10" s="52"/>
-      <c r="G10" s="52"/>
-      <c r="H10" s="52"/>
-      <c r="I10" s="52"/>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="F10" s="49"/>
+      <c r="G10" s="49"/>
+      <c r="H10" s="49"/>
+      <c r="I10" s="49"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
+        <v>158</v>
+      </c>
+      <c r="B11" s="23" t="s">
         <v>161</v>
       </c>
-      <c r="B11" s="23" t="s">
+      <c r="C11" t="s">
         <v>164</v>
-      </c>
-      <c r="C11" t="s">
-        <v>167</v>
       </c>
       <c r="D11">
         <v>5474859060</v>
       </c>
-      <c r="F11" s="52"/>
-      <c r="G11" s="52"/>
-      <c r="H11" s="52"/>
-      <c r="I11" s="52"/>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+      <c r="F11" s="49"/>
+      <c r="G11" s="49"/>
+      <c r="H11" s="49"/>
+      <c r="I11" s="49"/>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C12" t="s">
-        <v>168</v>
+        <v>165</v>
       </c>
       <c r="D12">
         <v>6485607</v>
       </c>
-      <c r="F12" s="52"/>
-      <c r="G12" s="52"/>
-      <c r="H12" s="52"/>
-      <c r="I12" s="52"/>
-      <c r="J12" s="52"/>
-      <c r="K12" s="52"/>
-      <c r="L12" s="52"/>
+      <c r="F12" s="49"/>
+      <c r="G12" s="49"/>
+      <c r="H12" s="49"/>
+      <c r="I12" s="49"/>
+      <c r="J12" s="49"/>
+      <c r="K12" s="49"/>
+      <c r="L12" s="49"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3938,25 +3941,25 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="33" t="s">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
       <c r="D1" s="33"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="54" t="s">
-        <v>171</v>
-      </c>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
+      <c r="B3" s="51" t="s">
+        <v>168</v>
+      </c>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
-        <v>172</v>
+        <v>169</v>
       </c>
       <c r="F6" s="77" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="G6" s="78"/>
       <c r="H6" s="78"/>
@@ -4070,7 +4073,7 @@
   <sheetData>
     <row r="1" spans="1:17">
       <c r="A1" s="33" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4079,19 +4082,19 @@
     </row>
     <row r="2" spans="1:17">
       <c r="B2" s="79" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="C2" s="79"/>
       <c r="D2" s="79"/>
     </row>
     <row r="3" spans="1:17">
       <c r="Q3" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:17">
       <c r="C6" s="33" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="D6" s="33"/>
       <c r="E6" s="33"/>
@@ -4103,15 +4106,15 @@
     </row>
     <row r="7" spans="1:17">
       <c r="F7" s="12" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="G7" s="16" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
     </row>
     <row r="8" spans="1:17">
       <c r="E8" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="F8">
         <v>40000</v>
@@ -4122,7 +4125,7 @@
     </row>
     <row r="9" spans="1:17">
       <c r="E9" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="F9">
         <v>3000000</v>
@@ -4133,7 +4136,7 @@
     </row>
     <row r="10" spans="1:17">
       <c r="E10" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="F10">
         <v>3000000</v>
@@ -4144,7 +4147,7 @@
     </row>
     <row r="14" spans="1:17">
       <c r="E14" s="77" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F14" s="78"/>
       <c r="G14" s="78"/>
@@ -4226,7 +4229,7 @@
     </row>
     <row r="24" spans="5:20">
       <c r="P24" s="64" t="s">
-        <v>184</v>
+        <v>181</v>
       </c>
       <c r="Q24" s="64"/>
       <c r="R24" s="64"/>
@@ -4251,7 +4254,7 @@
   <dimension ref="A1:V16"/>
   <sheetViews>
     <sheetView topLeftCell="K1" workbookViewId="0">
-      <selection activeCell="V11" sqref="V11"/>
+      <selection activeCell="R27" sqref="R27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4261,7 +4264,7 @@
   <sheetData>
     <row r="1" spans="1:22">
       <c r="A1" s="64" t="s">
-        <v>185</v>
+        <v>182</v>
       </c>
       <c r="B1" s="64"/>
       <c r="C1" s="64"/>
@@ -4271,97 +4274,97 @@
     </row>
     <row r="2" spans="1:22">
       <c r="N2" s="68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="O2" s="68"/>
       <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
-      <c r="A3" s="51" t="s">
-        <v>186</v>
-      </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="A3" s="48" t="s">
+        <v>183</v>
+      </c>
+      <c r="B3" s="48"/>
+      <c r="C3" s="48"/>
+      <c r="D3" s="48"/>
+      <c r="E3" s="48"/>
+      <c r="F3" s="48"/>
+      <c r="G3" s="48"/>
       <c r="N3" s="68"/>
       <c r="O3" s="68"/>
       <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="A4" s="48"/>
+      <c r="B4" s="48"/>
+      <c r="C4" s="48"/>
+      <c r="D4" s="48"/>
+      <c r="E4" s="48"/>
+      <c r="F4" s="48"/>
+      <c r="G4" s="48"/>
       <c r="T4" s="66" t="s">
-        <v>188</v>
+        <v>185</v>
       </c>
       <c r="U4" t="s">
-        <v>190</v>
+        <v>187</v>
       </c>
       <c r="V4" s="25">
         <v>600000000</v>
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="A5" s="48"/>
+      <c r="B5" s="48"/>
+      <c r="C5" s="48"/>
+      <c r="D5" s="48"/>
+      <c r="E5" s="48"/>
+      <c r="F5" s="48"/>
+      <c r="G5" s="48"/>
       <c r="T5" s="67"/>
       <c r="U5" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
       <c r="V5" s="26">
         <v>0.05</v>
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="A6" s="48"/>
+      <c r="B6" s="48"/>
+      <c r="C6" s="48"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="48"/>
+      <c r="G6" s="48"/>
       <c r="T6" s="67"/>
       <c r="U6" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="V6">
         <v>30</v>
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="A7" s="48"/>
+      <c r="B7" s="48"/>
+      <c r="C7" s="48"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="48"/>
+      <c r="G7" s="48"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="A8" s="48"/>
+      <c r="B8" s="48"/>
+      <c r="C8" s="48"/>
+      <c r="D8" s="48"/>
+      <c r="E8" s="48"/>
+      <c r="F8" s="48"/>
+      <c r="G8" s="48"/>
       <c r="T8" s="68" t="s">
-        <v>189</v>
+        <v>186</v>
       </c>
       <c r="U8" t="s">
-        <v>193</v>
+        <v>190</v>
       </c>
       <c r="V8" s="27">
         <f>PMT(V5/12,V6*12,V4)</f>
@@ -4369,25 +4372,25 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="A9" s="48"/>
+      <c r="B9" s="48"/>
+      <c r="C9" s="48"/>
+      <c r="D9" s="48"/>
+      <c r="E9" s="48"/>
+      <c r="F9" s="48"/>
+      <c r="G9" s="48"/>
       <c r="T9" s="68"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="A10" s="48"/>
+      <c r="B10" s="48"/>
+      <c r="C10" s="48"/>
+      <c r="D10" s="48"/>
+      <c r="E10" s="48"/>
+      <c r="F10" s="48"/>
+      <c r="G10" s="48"/>
       <c r="U10" s="16" t="s">
-        <v>194</v>
+        <v>191</v>
       </c>
       <c r="V10" s="27">
         <f>V8*30*12</f>
@@ -4395,58 +4398,58 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="A11" s="48"/>
+      <c r="B11" s="48"/>
+      <c r="C11" s="48"/>
+      <c r="D11" s="48"/>
+      <c r="E11" s="48"/>
+      <c r="F11" s="48"/>
+      <c r="G11" s="48"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="48"/>
+      <c r="B12" s="48"/>
+      <c r="C12" s="48"/>
+      <c r="D12" s="48"/>
+      <c r="E12" s="48"/>
+      <c r="F12" s="48"/>
+      <c r="G12" s="48"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="A13" s="48"/>
+      <c r="B13" s="48"/>
+      <c r="C13" s="48"/>
+      <c r="D13" s="48"/>
+      <c r="E13" s="48"/>
+      <c r="F13" s="48"/>
+      <c r="G13" s="48"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="A14" s="48"/>
+      <c r="B14" s="48"/>
+      <c r="C14" s="48"/>
+      <c r="D14" s="48"/>
+      <c r="E14" s="48"/>
+      <c r="F14" s="48"/>
+      <c r="G14" s="48"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="51"/>
-      <c r="B15" s="51"/>
-      <c r="C15" s="51"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="51"/>
-      <c r="F15" s="51"/>
-      <c r="G15" s="51"/>
+      <c r="A15" s="48"/>
+      <c r="B15" s="48"/>
+      <c r="C15" s="48"/>
+      <c r="D15" s="48"/>
+      <c r="E15" s="48"/>
+      <c r="F15" s="48"/>
+      <c r="G15" s="48"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="51"/>
-      <c r="B16" s="51"/>
-      <c r="C16" s="51"/>
-      <c r="D16" s="51"/>
-      <c r="E16" s="51"/>
-      <c r="F16" s="51"/>
-      <c r="G16" s="51"/>
+      <c r="A16" s="48"/>
+      <c r="B16" s="48"/>
+      <c r="C16" s="48"/>
+      <c r="D16" s="48"/>
+      <c r="E16" s="48"/>
+      <c r="F16" s="48"/>
+      <c r="G16" s="48"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4465,8 +4468,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4477,7 +4480,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="33" t="s">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4487,105 +4490,105 @@
       <c r="G1" s="33"/>
       <c r="H1" s="33"/>
       <c r="N1" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
     </row>
     <row r="2" spans="1:14">
       <c r="N2" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="C3" s="54" t="s">
-        <v>196</v>
-      </c>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
+      <c r="C3" s="51" t="s">
+        <v>193</v>
+      </c>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
       <c r="N3" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
     </row>
     <row r="4" spans="1:14">
       <c r="N4" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="5" spans="1:14">
       <c r="C5" s="9" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="F5" s="33" t="s">
-        <v>204</v>
+        <v>201</v>
       </c>
       <c r="G5" s="33"/>
       <c r="N5" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
     </row>
     <row r="6" spans="1:14">
       <c r="C6" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="D6" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="F6" s="40" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="G6" s="40"/>
       <c r="N6" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
     </row>
     <row r="7" spans="1:14">
       <c r="C7" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="D7" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N7" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
     </row>
     <row r="8" spans="1:14">
       <c r="C8" t="s">
+        <v>197</v>
+      </c>
+      <c r="D8" t="s">
         <v>200</v>
       </c>
-      <c r="D8" t="s">
+      <c r="F8" t="s">
         <v>203</v>
       </c>
-      <c r="F8" t="s">
-        <v>206</v>
-      </c>
       <c r="N8" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
     </row>
     <row r="9" spans="1:14">
       <c r="C9" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="D9" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N9" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
     </row>
     <row r="10" spans="1:14">
       <c r="C10" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="D10" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="N10" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
   </sheetData>
@@ -4603,7 +4606,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:AA21"/>
   <sheetViews>
-    <sheetView topLeftCell="E13" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="F20" sqref="F20:T21"/>
     </sheetView>
   </sheetViews>
@@ -4611,7 +4614,7 @@
   <sheetData>
     <row r="1" spans="1:27">
       <c r="A1" s="33" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -4621,7 +4624,7 @@
     </row>
     <row r="2" spans="1:27">
       <c r="A2" s="66" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="B2" s="67"/>
       <c r="C2" s="67"/>
@@ -4722,10 +4725,10 @@
     </row>
     <row r="14" spans="1:27">
       <c r="E14" s="28" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="F14" s="68" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G14" s="68"/>
       <c r="H14" s="68"/>
@@ -4775,10 +4778,10 @@
     </row>
     <row r="17" spans="5:20">
       <c r="E17" s="28" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="F17" s="67" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G17" s="67"/>
       <c r="H17" s="67"/>
@@ -4814,10 +4817,10 @@
     </row>
     <row r="20" spans="5:20">
       <c r="E20" s="28" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F20" s="68" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G20" s="68"/>
       <c r="H20" s="68"/>
@@ -4880,16 +4883,16 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" t="s">
+        <v>221</v>
+      </c>
+      <c r="B1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C1" t="s">
+        <v>223</v>
+      </c>
+      <c r="D1" t="s">
         <v>224</v>
-      </c>
-      <c r="B1" t="s">
-        <v>225</v>
-      </c>
-      <c r="C1" t="s">
-        <v>226</v>
-      </c>
-      <c r="D1" t="s">
-        <v>227</v>
       </c>
     </row>
     <row r="2" spans="1:4">
@@ -4914,7 +4917,7 @@
         <v>2611000000000</v>
       </c>
       <c r="D3" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
     </row>
   </sheetData>
@@ -4939,7 +4942,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="80" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="B1" s="80"/>
       <c r="C1" s="80"/>
@@ -4959,154 +4962,154 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="81" t="s">
-        <v>233</v>
-      </c>
-      <c r="B3" s="54"/>
-      <c r="C3" s="54"/>
-      <c r="D3" s="54"/>
-      <c r="E3" s="54"/>
-      <c r="F3" s="54"/>
-      <c r="G3" s="54"/>
+        <v>230</v>
+      </c>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="54"/>
-      <c r="B4" s="54"/>
-      <c r="C4" s="54"/>
-      <c r="D4" s="54"/>
-      <c r="E4" s="54"/>
-      <c r="F4" s="54"/>
-      <c r="G4" s="54"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="54"/>
-      <c r="D5" s="54"/>
-      <c r="E5" s="54"/>
-      <c r="F5" s="54"/>
-      <c r="G5" s="54"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="54"/>
-      <c r="D6" s="54"/>
-      <c r="E6" s="54"/>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="54"/>
-      <c r="D7" s="54"/>
-      <c r="E7" s="54"/>
-      <c r="F7" s="54"/>
-      <c r="G7" s="54"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="54"/>
-      <c r="D8" s="54"/>
-      <c r="E8" s="54"/>
-      <c r="F8" s="54"/>
-      <c r="G8" s="54"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="54"/>
-      <c r="B9" s="54"/>
-      <c r="C9" s="54"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
-      <c r="F9" s="54"/>
-      <c r="G9" s="54"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="54"/>
-      <c r="B10" s="54"/>
-      <c r="C10" s="54"/>
-      <c r="D10" s="54"/>
-      <c r="E10" s="54"/>
-      <c r="F10" s="54"/>
-      <c r="G10" s="54"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="54"/>
-      <c r="B11" s="54"/>
-      <c r="C11" s="54"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
-      <c r="F11" s="54"/>
-      <c r="G11" s="54"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="54"/>
-      <c r="B12" s="54"/>
-      <c r="C12" s="54"/>
-      <c r="D12" s="54"/>
-      <c r="E12" s="54"/>
-      <c r="F12" s="54"/>
-      <c r="G12" s="54"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="54"/>
-      <c r="B13" s="54"/>
-      <c r="C13" s="54"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="54"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="54"/>
-      <c r="B14" s="54"/>
-      <c r="C14" s="54"/>
-      <c r="D14" s="54"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="54"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="H17" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="I17" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="J17" s="12" t="s">
         <v>234</v>
-      </c>
-      <c r="H17" s="12" t="s">
-        <v>235</v>
-      </c>
-      <c r="I17" s="12" t="s">
-        <v>236</v>
-      </c>
-      <c r="J17" s="12" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="18" spans="7:10">
       <c r="G18" t="s">
-        <v>238</v>
+        <v>235</v>
       </c>
       <c r="H18" t="s">
-        <v>239</v>
+        <v>236</v>
       </c>
       <c r="I18" s="14">
         <v>43880</v>
       </c>
       <c r="J18" s="23" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
     </row>
     <row r="19" spans="7:10">
       <c r="G19" t="s">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="H19" t="s">
-        <v>241</v>
+        <v>238</v>
       </c>
       <c r="I19" s="14">
         <v>43936</v>
       </c>
       <c r="J19" s="23" t="s">
-        <v>243</v>
+        <v>240</v>
       </c>
     </row>
   </sheetData>
@@ -6913,7 +6916,7 @@
   <sheetData>
     <row r="1" spans="4:10">
       <c r="D1" s="80" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="E1" s="80"/>
       <c r="F1" s="80"/>
@@ -6933,14 +6936,14 @@
     </row>
     <row r="17" spans="2:11">
       <c r="B17" s="80" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="C17" s="80"/>
       <c r="D17" s="80"/>
       <c r="E17" s="80"/>
       <c r="F17" s="80"/>
       <c r="H17" s="80" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="I17" s="80"/>
       <c r="J17" s="80"/>
@@ -6980,7 +6983,7 @@
   <sheetData>
     <row r="1" spans="1:20">
       <c r="A1" s="82" t="s">
-        <v>244</v>
+        <v>241</v>
       </c>
       <c r="B1" s="78"/>
       <c r="C1" s="78"/>
@@ -7158,69 +7161,69 @@
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>242</v>
+      </c>
+      <c r="B10" t="s">
+        <v>243</v>
+      </c>
+      <c r="C10" t="s">
+        <v>244</v>
+      </c>
+      <c r="D10" t="s">
         <v>245</v>
       </c>
-      <c r="B10" t="s">
+      <c r="E10" t="s">
         <v>246</v>
       </c>
-      <c r="C10" t="s">
+      <c r="F10" t="s">
         <v>247</v>
       </c>
-      <c r="D10" t="s">
+      <c r="G10" t="s">
         <v>248</v>
       </c>
-      <c r="E10" t="s">
+      <c r="H10" t="s">
         <v>249</v>
       </c>
-      <c r="F10" t="s">
-        <v>250</v>
-      </c>
-      <c r="G10" t="s">
-        <v>251</v>
-      </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>252</v>
       </c>
-      <c r="I10" t="s">
+      <c r="J10" t="s">
+        <v>253</v>
+      </c>
+      <c r="K10" t="s">
+        <v>254</v>
+      </c>
+      <c r="L10" t="s">
         <v>255</v>
       </c>
-      <c r="J10" t="s">
-        <v>256</v>
-      </c>
-      <c r="K10" t="s">
-        <v>257</v>
-      </c>
-      <c r="L10" t="s">
-        <v>258</v>
-      </c>
       <c r="M10" t="s">
+        <v>263</v>
+      </c>
+      <c r="N10" t="s">
+        <v>264</v>
+      </c>
+      <c r="O10" t="s">
+        <v>265</v>
+      </c>
+      <c r="P10" t="s">
         <v>266</v>
       </c>
-      <c r="N10" t="s">
+      <c r="Q10" t="s">
         <v>267</v>
-      </c>
-      <c r="O10" t="s">
-        <v>268</v>
-      </c>
-      <c r="P10" t="s">
-        <v>269</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>270</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
       <c r="B11" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="C11" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="D11" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="E11" t="str">
         <f>UPPER(D11)</f>
@@ -7269,16 +7272,16 @@
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="B12" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="C12" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="D12" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="E12" t="str">
         <f>UPPER(D12)</f>
@@ -7352,7 +7355,7 @@
   <sheetData>
     <row r="1" spans="1:14">
       <c r="A1" s="33" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -7380,7 +7383,7 @@
     </row>
     <row r="3" spans="1:14">
       <c r="H3" s="56" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="I3" s="56"/>
       <c r="J3" s="56"/>
@@ -7391,38 +7394,38 @@
     </row>
     <row r="4" spans="1:14">
       <c r="A4" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="B4" s="17" t="s">
         <v>58</v>
       </c>
       <c r="C4" s="17" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="D4" s="17" t="s">
+        <v>278</v>
+      </c>
+      <c r="E4" s="17" t="s">
+        <v>279</v>
+      </c>
+      <c r="F4" s="17" t="s">
         <v>281</v>
       </c>
-      <c r="E4" s="17" t="s">
-        <v>282</v>
-      </c>
-      <c r="F4" s="17" t="s">
-        <v>284</v>
-      </c>
       <c r="G4" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="H4" s="12" t="s">
+        <v>285</v>
+      </c>
+      <c r="I4" s="12" t="s">
         <v>286</v>
-      </c>
-      <c r="H4" s="12" t="s">
-        <v>288</v>
-      </c>
-      <c r="I4" s="12" t="s">
-        <v>289</v>
       </c>
       <c r="J4" s="12"/>
       <c r="K4" s="21" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="L4" s="21" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="M4" s="40"/>
       <c r="N4" s="40"/>
@@ -7432,14 +7435,14 @@
       <c r="C5" s="17"/>
       <c r="D5" s="17"/>
       <c r="E5" s="17" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="G5" s="17"/>
       <c r="K5" s="21" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="M5" s="40"/>
       <c r="N5" s="40"/>
@@ -7479,7 +7482,7 @@
   <dimension ref="A2:G15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7513,26 +7516,26 @@
     </row>
     <row r="6" spans="1:7">
       <c r="A6" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="B6" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
     </row>
     <row r="7" spans="1:7">
       <c r="A7" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="B7" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
     </row>
     <row r="8" spans="1:7">
       <c r="A8" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -7589,8 +7592,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R44"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7616,27 +7619,27 @@
       <c r="A3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="45" t="s">
+      <c r="B3" s="46" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="46"/>
-      <c r="D3" s="46"/>
-      <c r="E3" s="46"/>
-      <c r="F3" s="46"/>
-      <c r="G3" s="46"/>
-      <c r="H3" s="46"/>
-      <c r="I3" s="46"/>
+      <c r="C3" s="47"/>
+      <c r="D3" s="47"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="47"/>
+      <c r="G3" s="47"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="47"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="36"/>
-      <c r="B4" s="46"/>
-      <c r="C4" s="46"/>
-      <c r="D4" s="46"/>
-      <c r="E4" s="46"/>
-      <c r="F4" s="46"/>
-      <c r="G4" s="46"/>
-      <c r="H4" s="46"/>
-      <c r="I4" s="46"/>
+      <c r="B4" s="47"/>
+      <c r="C4" s="47"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="47"/>
+      <c r="G4" s="47"/>
+      <c r="H4" s="47"/>
+      <c r="I4" s="47"/>
       <c r="O4">
         <v>123456789</v>
       </c>
@@ -7649,17 +7652,17 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="36"/>
-      <c r="B5" s="46"/>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
-      <c r="E5" s="46"/>
-      <c r="F5" s="46"/>
-      <c r="G5" s="46"/>
-      <c r="H5" s="46"/>
-      <c r="I5" s="46"/>
+      <c r="B5" s="47"/>
+      <c r="C5" s="47"/>
+      <c r="D5" s="47"/>
+      <c r="E5" s="47"/>
+      <c r="F5" s="47"/>
+      <c r="G5" s="47"/>
+      <c r="H5" s="47"/>
+      <c r="I5" s="47"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="47" t="s">
+      <c r="A6" s="52" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
@@ -7668,16 +7671,16 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="E6" s="49" t="s">
+      <c r="E6" s="54" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
+      <c r="H6" s="54"/>
+      <c r="I6" s="54"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="48"/>
+      <c r="A7" s="53"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -7701,7 +7704,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="48"/>
+      <c r="A8" s="53"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -7725,7 +7728,7 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="48"/>
+      <c r="A9" s="53"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -7734,7 +7737,7 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="48"/>
+      <c r="A10" s="53"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -7823,20 +7826,20 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="53" t="s">
+      <c r="F15" s="50" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="54" t="s">
+      <c r="G15" s="51" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="50" t="s">
+      <c r="H15" s="45" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="F16" s="53"/>
-      <c r="G16" s="54"/>
-      <c r="H16" s="50"/>
+      <c r="F16" s="50"/>
+      <c r="G16" s="51"/>
+      <c r="H16" s="45"/>
       <c r="O16" t="s">
         <v>41</v>
       </c>
@@ -7848,15 +7851,15 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="45" t="s">
+      <c r="A17" s="46" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="51" t="s">
+      <c r="B17" s="48" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="52"/>
-      <c r="D17" s="52"/>
-      <c r="E17" s="52"/>
+      <c r="C17" s="49"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
       <c r="F17" t="s">
         <v>17</v>
       </c>
@@ -7877,11 +7880,11 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="46"/>
-      <c r="B18" s="52"/>
-      <c r="C18" s="52"/>
-      <c r="D18" s="52"/>
-      <c r="E18" s="52"/>
+      <c r="A18" s="47"/>
+      <c r="B18" s="49"/>
+      <c r="C18" s="49"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
       <c r="F18" t="s">
         <v>18</v>
       </c>
@@ -7902,11 +7905,11 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="46"/>
-      <c r="B19" s="52"/>
-      <c r="C19" s="52"/>
-      <c r="D19" s="52"/>
-      <c r="E19" s="52"/>
+      <c r="A19" s="47"/>
+      <c r="B19" s="49"/>
+      <c r="C19" s="49"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
       <c r="F19" t="s">
         <v>19</v>
       </c>
@@ -8051,83 +8054,79 @@
       <c r="F31" t="s">
         <v>19</v>
       </c>
-      <c r="G31">
-        <v>15</v>
-      </c>
     </row>
     <row r="32" spans="1:17">
       <c r="F32" t="s">
         <v>20</v>
       </c>
-      <c r="G32">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="6:7">
+    </row>
+    <row r="33" spans="6:6">
       <c r="F33" t="s">
         <v>21</v>
       </c>
-      <c r="G33">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="34" spans="6:7">
+    </row>
+    <row r="34" spans="6:6">
       <c r="F34" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="35" spans="6:7">
+    <row r="35" spans="6:6">
       <c r="F35" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="36" spans="6:7">
+    <row r="36" spans="6:6">
       <c r="F36" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="37" spans="6:7">
+    <row r="37" spans="6:6">
       <c r="F37" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="38" spans="6:7">
+    <row r="38" spans="6:6">
       <c r="F38" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="39" spans="6:7">
+    <row r="39" spans="6:6">
       <c r="F39" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="40" spans="6:7">
+    <row r="40" spans="6:6">
       <c r="F40" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="41" spans="6:7">
+    <row r="41" spans="6:6">
       <c r="F41" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="42" spans="6:7">
+    <row r="42" spans="6:6">
       <c r="F42" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="43" spans="6:7">
+    <row r="43" spans="6:6">
       <c r="F43" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="44" spans="6:7">
+    <row r="44" spans="6:6">
       <c r="F44" t="s">
         <v>20</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:I5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="E6:I6"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A15:E15"/>
@@ -8135,11 +8134,6 @@
     <mergeCell ref="B17:E19"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:I5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8150,8 +8144,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8213,7 +8207,7 @@
       <c r="G8" s="3"/>
       <c r="H8" s="3"/>
       <c r="J8" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="K8" s="33"/>
       <c r="L8" s="33"/>
@@ -8237,7 +8231,7 @@
       <c r="G9" s="56"/>
       <c r="H9" s="56"/>
       <c r="J9" s="57" t="s">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="K9" s="58"/>
       <c r="L9" s="58"/>
@@ -8342,12 +8336,17 @@
       <c r="B13" t="s">
         <v>60</v>
       </c>
-      <c r="D13" t="s">
-        <v>63</v>
+      <c r="C13" t="str">
+        <f>CONCATENATE(B13)</f>
+        <v>ELON MUSK</v>
+      </c>
+      <c r="D13" t="str">
+        <f>UPPER(C13)</f>
+        <v>ELON MUSK</v>
       </c>
       <c r="E13" t="str">
         <f>LOWER(D13)</f>
-        <v>alon musk</v>
+        <v>elon musk</v>
       </c>
       <c r="F13">
         <v>9</v>
@@ -8366,9 +8365,17 @@
       <c r="B14" t="s">
         <v>61</v>
       </c>
+      <c r="C14" t="str">
+        <f>CONCATENATE(B14)</f>
+        <v>PEMA BHUTIIA</v>
+      </c>
+      <c r="D14" t="str">
+        <f>UPPER(C14)</f>
+        <v>PEMA BHUTIIA</v>
+      </c>
       <c r="E14" t="str">
         <f>LOWER(D14)</f>
-        <v/>
+        <v>pema bhutiia</v>
       </c>
       <c r="F14">
         <v>11</v>
@@ -8395,12 +8402,6 @@
       <c r="R15" s="58"/>
     </row>
     <row r="16" spans="1:18">
-      <c r="D16" t="s">
-        <v>64</v>
-      </c>
-      <c r="E16" t="s">
-        <v>65</v>
-      </c>
       <c r="J16" s="58"/>
       <c r="K16" s="58"/>
       <c r="L16" s="58"/>
@@ -8493,7 +8494,7 @@
   <dimension ref="A1:H25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="H4" sqref="H4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8505,7 +8506,7 @@
   <sheetData>
     <row r="1" spans="1:8">
       <c r="A1" s="33" t="s">
-        <v>68</v>
+        <v>65</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -8515,23 +8516,23 @@
     </row>
     <row r="3" spans="1:8">
       <c r="A3" s="38" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="B3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="E3" s="59" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="F3" s="59"/>
     </row>
     <row r="4" spans="1:8">
       <c r="A4" s="39"/>
       <c r="C4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E4">
         <v>50</v>
@@ -8547,10 +8548,10 @@
     <row r="5" spans="1:8">
       <c r="A5" s="39"/>
       <c r="B5" s="6" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C5" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="F5">
         <v>5</v>
@@ -8563,10 +8564,10 @@
     <row r="6" spans="1:8">
       <c r="A6" s="39"/>
       <c r="B6" s="6" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C6" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="F6">
         <v>5</v>
@@ -8579,10 +8580,10 @@
     <row r="7" spans="1:8">
       <c r="A7" s="39"/>
       <c r="B7" s="6" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F7">
         <v>5</v>
@@ -8595,10 +8596,10 @@
     <row r="8" spans="1:8">
       <c r="A8" s="39"/>
       <c r="B8" s="6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="F8">
         <v>5</v>
@@ -8611,10 +8612,10 @@
     <row r="9" spans="1:8">
       <c r="A9" s="39"/>
       <c r="B9" s="6" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="F9">
         <v>5</v>
@@ -8626,7 +8627,7 @@
     </row>
     <row r="14" spans="1:8" ht="15.75">
       <c r="B14" s="60" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C14" s="60"/>
       <c r="D14" s="60"/>
@@ -8636,7 +8637,7 @@
     </row>
     <row r="15" spans="1:8">
       <c r="B15" s="43" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C15" s="44"/>
       <c r="D15" s="44"/>
@@ -8708,7 +8709,7 @@
       <c r="F23" s="44"/>
       <c r="G23" s="44"/>
       <c r="H23" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -8744,7 +8745,7 @@
   <dimension ref="A1:G18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8756,7 +8757,7 @@
   <sheetData>
     <row r="1" spans="1:7">
       <c r="A1" s="42" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="B1" s="42"/>
       <c r="C1" s="42"/>
@@ -8766,11 +8767,11 @@
     </row>
     <row r="3" spans="1:7">
       <c r="A3" s="61" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="B3" s="61"/>
       <c r="E3" s="12" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F3" s="12"/>
       <c r="G3" s="13"/>
@@ -8786,7 +8787,7 @@
         <v>100</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5" s="30" t="str">
         <f>IF(A5&gt;B5,"TRUE","FALSE")</f>
@@ -8801,7 +8802,7 @@
         <v>100</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F6" s="30">
         <f>IF(A6&gt;B6,1,0)</f>
@@ -8816,7 +8817,7 @@
         <v>100</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" s="30" t="str">
         <f>IF(A7&lt;B7,"PASS","FAIL")</f>
@@ -8831,7 +8832,7 @@
         <v>100</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" s="30" t="str">
         <f>IF(A8&gt;B8,"YES","NO")</f>
@@ -8840,7 +8841,7 @@
     </row>
     <row r="11" spans="1:7">
       <c r="A11" s="33" t="s">
-        <v>66</v>
+        <v>63</v>
       </c>
       <c r="B11" s="33"/>
       <c r="C11" s="33"/>
@@ -8850,7 +8851,7 @@
     </row>
     <row r="12" spans="1:7">
       <c r="A12" s="62" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="B12" s="63"/>
       <c r="C12" s="63"/>
@@ -8927,10 +8928,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L12"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="J21" sqref="J21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -8941,7 +8942,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="33" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B1" s="33"/>
       <c r="C1" s="33"/>
@@ -8950,12 +8951,12 @@
     </row>
     <row r="4" spans="1:12">
       <c r="B4" s="64" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C4" s="64"/>
       <c r="D4" s="64"/>
       <c r="G4" s="65" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="H4" s="65"/>
       <c r="I4" s="65"/>
@@ -8965,7 +8966,7 @@
     </row>
     <row r="5" spans="1:12">
       <c r="H5" s="66" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="I5" s="67"/>
       <c r="J5" s="67"/>
@@ -8974,11 +8975,11 @@
     </row>
     <row r="6" spans="1:12">
       <c r="C6" s="9" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="D6" s="14">
         <f ca="1">TODAY()</f>
-        <v>44704</v>
+        <v>44705</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
@@ -8988,11 +8989,11 @@
     </row>
     <row r="7" spans="1:12">
       <c r="C7" s="16" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="D7" s="15">
         <f ca="1">NOW()</f>
-        <v>44704.753655902779</v>
+        <v>44705.757337731484</v>
       </c>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
@@ -9009,7 +9010,7 @@
     </row>
     <row r="9" spans="1:12">
       <c r="B9" s="12" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C9" s="14">
         <v>43831</v>
@@ -9026,7 +9027,7 @@
     </row>
     <row r="10" spans="1:12">
       <c r="B10" s="12" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C10" s="14">
         <v>43892</v>
@@ -9043,7 +9044,7 @@
     </row>
     <row r="11" spans="1:12">
       <c r="B11" s="12" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="14">
         <v>43831</v>
@@ -9059,11 +9060,27 @@
       <c r="L11" s="67"/>
     </row>
     <row r="12" spans="1:12">
+      <c r="C12" s="14">
+        <v>44259</v>
+      </c>
+      <c r="D12">
+        <f>DAY(C12)</f>
+        <v>4</v>
+      </c>
       <c r="H12" s="67"/>
       <c r="I12" s="67"/>
       <c r="J12" s="67"/>
       <c r="K12" s="67"/>
       <c r="L12" s="67"/>
+    </row>
+    <row r="13" spans="1:12">
+      <c r="C13" s="14">
+        <v>44600</v>
+      </c>
+      <c r="D13">
+        <f>MONTH(C13)</f>
+        <v>2</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -9081,8 +9098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="I7" sqref="I7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -9093,7 +9110,7 @@
   <sheetData>
     <row r="1" spans="1:12">
       <c r="A1" s="68" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="B1" s="68"/>
       <c r="C1" s="68"/>
@@ -9103,157 +9120,157 @@
     </row>
     <row r="3" spans="1:12">
       <c r="G3" s="19" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="I3">
-        <f>SUM(D5:D10)</f>
-        <v>94</v>
-      </c>
-      <c r="J3" s="51" t="s">
-        <v>119</v>
-      </c>
-      <c r="K3" s="52"/>
-      <c r="L3" s="52"/>
+      <c r="J3" s="48" t="s">
+        <v>116</v>
+      </c>
+      <c r="K3" s="49"/>
+      <c r="L3" s="49"/>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="17" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="D4" s="17" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="G4" s="18" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="I4">
+        <f>SUM(D5:D7)</f>
+        <v>71</v>
+      </c>
+      <c r="J4" s="49"/>
+      <c r="K4" s="49"/>
+      <c r="L4" s="49"/>
+    </row>
+    <row r="5" spans="1:12">
+      <c r="C5" t="s">
+        <v>102</v>
+      </c>
+      <c r="D5">
+        <v>23</v>
+      </c>
+      <c r="G5" s="18" t="s">
+        <v>108</v>
+      </c>
+      <c r="I5">
         <f>MIN(D5:D10)</f>
         <v>23</v>
       </c>
-      <c r="J4" s="52"/>
-      <c r="K4" s="52"/>
-      <c r="L4" s="52"/>
-    </row>
-    <row r="5" spans="1:12">
-      <c r="C5" t="s">
-        <v>105</v>
-      </c>
-      <c r="D5">
+      <c r="J5" s="49"/>
+      <c r="K5" s="49"/>
+      <c r="L5" s="49"/>
+    </row>
+    <row r="6" spans="1:12">
+      <c r="C6" t="s">
+        <v>104</v>
+      </c>
+      <c r="D6">
         <v>23</v>
       </c>
-      <c r="G5" s="18" t="s">
-        <v>111</v>
-      </c>
-      <c r="I5">
+      <c r="G6" s="18" t="s">
+        <v>109</v>
+      </c>
+      <c r="I6">
         <f>MAX(D5:D10)</f>
         <v>25</v>
       </c>
-      <c r="J5" s="52"/>
-      <c r="K5" s="52"/>
-      <c r="L5" s="52"/>
-    </row>
-    <row r="6" spans="1:12">
-      <c r="C6" t="s">
-        <v>107</v>
-      </c>
-      <c r="D6">
-        <v>23</v>
-      </c>
-      <c r="G6" s="18" t="s">
-        <v>112</v>
-      </c>
-      <c r="I6">
+      <c r="J6" s="49"/>
+      <c r="K6" s="49"/>
+      <c r="L6" s="49"/>
+    </row>
+    <row r="7" spans="1:12">
+      <c r="C7" t="s">
+        <v>103</v>
+      </c>
+      <c r="D7">
+        <v>25</v>
+      </c>
+      <c r="G7" s="18" t="s">
+        <v>110</v>
+      </c>
+      <c r="I7">
         <f>AVERAGE(D5:D10)</f>
         <v>23.5</v>
       </c>
-      <c r="J6" s="52"/>
-      <c r="K6" s="52"/>
-      <c r="L6" s="52"/>
-    </row>
-    <row r="7" spans="1:12">
-      <c r="C7" t="s">
-        <v>106</v>
-      </c>
-      <c r="D7">
-        <v>25</v>
-      </c>
-      <c r="G7" s="18" t="s">
-        <v>113</v>
-      </c>
-      <c r="I7">
+      <c r="J7" s="49"/>
+      <c r="K7" s="49"/>
+      <c r="L7" s="49"/>
+    </row>
+    <row r="8" spans="1:12">
+      <c r="G8" s="18" t="s">
+        <v>111</v>
+      </c>
+      <c r="I8">
         <f>COUNT(C5:C10,D5:D10)</f>
         <v>4</v>
       </c>
-      <c r="J7" s="52"/>
-      <c r="K7" s="52"/>
-      <c r="L7" s="52"/>
-    </row>
-    <row r="8" spans="1:12">
-      <c r="G8" s="18" t="s">
-        <v>114</v>
-      </c>
-      <c r="I8">
+      <c r="J8" s="49"/>
+      <c r="K8" s="49"/>
+      <c r="L8" s="49"/>
+    </row>
+    <row r="9" spans="1:12">
+      <c r="G9" s="18" t="s">
+        <v>112</v>
+      </c>
+      <c r="I9">
         <f>COUNTA(C5:C10,D5:D10)</f>
         <v>8</v>
       </c>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="52"/>
-    </row>
-    <row r="9" spans="1:12">
-      <c r="G9" s="18" t="s">
-        <v>115</v>
-      </c>
-      <c r="I9">
+      <c r="J9" s="49"/>
+      <c r="K9" s="49"/>
+      <c r="L9" s="49"/>
+    </row>
+    <row r="10" spans="1:12">
+      <c r="C10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D10">
+        <v>23</v>
+      </c>
+      <c r="G10" s="18" t="s">
+        <v>113</v>
+      </c>
+      <c r="I10">
         <f>COUNTBLANK(D5:D10)</f>
         <v>2</v>
       </c>
-      <c r="J9" s="52"/>
-      <c r="K9" s="52"/>
-      <c r="L9" s="52"/>
-    </row>
-    <row r="10" spans="1:12">
-      <c r="C10" t="s">
-        <v>108</v>
-      </c>
-      <c r="D10">
-        <v>23</v>
-      </c>
-      <c r="G10" s="18" t="s">
-        <v>116</v>
-      </c>
-      <c r="I10">
-        <f>SMALL(D5:D10,3)</f>
-        <v>23</v>
-      </c>
-      <c r="J10" s="52"/>
-      <c r="K10" s="52"/>
-      <c r="L10" s="52"/>
+      <c r="J10" s="49"/>
+      <c r="K10" s="49"/>
+      <c r="L10" s="49"/>
     </row>
     <row r="11" spans="1:12">
       <c r="D11">
         <v>35</v>
       </c>
       <c r="G11" s="18" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="I11">
-        <f>LARGE(D5:D10,1)</f>
-        <v>25</v>
-      </c>
-      <c r="J11" s="52"/>
-      <c r="K11" s="52"/>
-      <c r="L11" s="52"/>
+        <f>SMALL(D5:D10,3)</f>
+        <v>23</v>
+      </c>
+      <c r="J11" s="49"/>
+      <c r="K11" s="49"/>
+      <c r="L11" s="49"/>
     </row>
     <row r="12" spans="1:12">
       <c r="D12">
         <v>34</v>
       </c>
       <c r="G12" s="18" t="s">
-        <v>118</v>
+        <v>115</v>
+      </c>
+      <c r="I12">
+        <f>LARGE(D5:D10,1)</f>
+        <v>25</v>
       </c>
       <c r="J12" s="33" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="K12" s="33"/>
       <c r="L12" s="33"/>
@@ -9265,7 +9282,7 @@
     </row>
     <row r="15" spans="1:12">
       <c r="D15" s="68" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="E15" s="68"/>
       <c r="F15" s="68"/>
@@ -9277,7 +9294,7 @@
     </row>
     <row r="16" spans="1:12">
       <c r="D16" s="69" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="E16" s="70"/>
       <c r="F16" s="70"/>

--- a/excel work rasna.xlsx
+++ b/excel work rasna.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" firstSheet="11" activeTab="15"/>
+    <workbookView xWindow="120" yWindow="60" windowWidth="19095" windowHeight="8445" firstSheet="11" activeTab="17"/>
   </bookViews>
   <sheets>
     <sheet name="INTRODUCTION" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="328" uniqueCount="290">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="330" uniqueCount="292">
   <si>
     <t xml:space="preserve">A spreadsheet is a software program you use to easily perform a mathematical calculations on statistical data and totaling long columns of numbers or determining percentages and averages
 </t>
@@ -972,6 +972,12 @@
   </si>
   <si>
     <t>TOTAL ATTENDANCE</t>
+  </si>
+  <si>
+    <t>adsfasdf</t>
+  </si>
+  <si>
+    <t>asdfasdfdsaf</t>
   </si>
 </sst>
 </file>
@@ -1251,14 +1257,23 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
@@ -1271,15 +1286,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1463,24 +1469,24 @@
             </c:numRef>
           </c:val>
         </c:ser>
-        <c:axId val="70674304"/>
-        <c:axId val="70675840"/>
+        <c:axId val="79910784"/>
+        <c:axId val="79912320"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="70674304"/>
+        <c:axId val="79910784"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:axPos val="b"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70675840"/>
+        <c:crossAx val="79912320"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="70675840"/>
+        <c:axId val="79912320"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1488,7 +1494,7 @@
         <c:majorGridlines/>
         <c:numFmt formatCode="General" sourceLinked="1"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="70674304"/>
+        <c:crossAx val="79910784"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1497,7 +1503,7 @@
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000078" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000078" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -3695,12 +3701,12 @@
       </c>
     </row>
     <row r="15" spans="1:16">
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="54" t="s">
         <v>148</v>
       </c>
-      <c r="H15" s="51"/>
-      <c r="I15" s="51"/>
-      <c r="J15" s="51"/>
+      <c r="H15" s="54"/>
+      <c r="I15" s="54"/>
+      <c r="J15" s="54"/>
       <c r="K15">
         <f>AVERAGEIF(H4:H8,"&lt;45")</f>
         <v>33.333333333333336</v>
@@ -3772,15 +3778,15 @@
         <f>VLOOKUP(A5,A9:D12,4,0)</f>
         <v>674539430</v>
       </c>
-      <c r="F5" s="48" t="s">
+      <c r="F5" s="51" t="s">
         <v>166</v>
       </c>
-      <c r="G5" s="49"/>
-      <c r="H5" s="49"/>
-      <c r="I5" s="49"/>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="G5" s="52"/>
+      <c r="H5" s="52"/>
+      <c r="I5" s="52"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12">
       <c r="A6" t="s">
@@ -3790,13 +3796,13 @@
         <f>VLOOKUP(A6,A9:D12,2,0)</f>
         <v>per@gmail.com</v>
       </c>
-      <c r="F6" s="49"/>
-      <c r="G6" s="49"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="F6" s="52"/>
+      <c r="G6" s="52"/>
+      <c r="H6" s="52"/>
+      <c r="I6" s="52"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12">
       <c r="A7" t="s">
@@ -3806,13 +3812,13 @@
         <f>VLOOKUP(A7,A9:D12,3,0)</f>
         <v>tadong</v>
       </c>
-      <c r="F7" s="49"/>
-      <c r="G7" s="49"/>
-      <c r="H7" s="49"/>
-      <c r="I7" s="49"/>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="F7" s="52"/>
+      <c r="G7" s="52"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12">
       <c r="A8" s="33" t="s">
@@ -3821,13 +3827,13 @@
       <c r="B8" s="33"/>
       <c r="C8" s="33"/>
       <c r="D8" s="33"/>
-      <c r="F8" s="49"/>
-      <c r="G8" s="49"/>
-      <c r="H8" s="49"/>
-      <c r="I8" s="49"/>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52"/>
+      <c r="H8" s="52"/>
+      <c r="I8" s="52"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12">
       <c r="A9" t="s">
@@ -3842,13 +3848,13 @@
       <c r="D9">
         <v>231132213</v>
       </c>
-      <c r="F9" s="49"/>
-      <c r="G9" s="49"/>
-      <c r="H9" s="49"/>
-      <c r="I9" s="49"/>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="F9" s="52"/>
+      <c r="G9" s="52"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="52"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12">
       <c r="A10" t="s">
@@ -3863,13 +3869,13 @@
       <c r="D10">
         <v>674539430</v>
       </c>
-      <c r="F10" s="49"/>
-      <c r="G10" s="49"/>
-      <c r="H10" s="49"/>
-      <c r="I10" s="49"/>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52"/>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12">
       <c r="A11" t="s">
@@ -3884,13 +3890,13 @@
       <c r="D11">
         <v>5474859060</v>
       </c>
-      <c r="F11" s="49"/>
-      <c r="G11" s="49"/>
-      <c r="H11" s="49"/>
-      <c r="I11" s="49"/>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
+      <c r="F11" s="52"/>
+      <c r="G11" s="52"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="52"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12">
       <c r="A12" t="s">
@@ -3905,13 +3911,13 @@
       <c r="D12">
         <v>6485607</v>
       </c>
-      <c r="F12" s="49"/>
-      <c r="G12" s="49"/>
-      <c r="H12" s="49"/>
-      <c r="I12" s="49"/>
-      <c r="J12" s="49"/>
-      <c r="K12" s="49"/>
-      <c r="L12" s="49"/>
+      <c r="F12" s="52"/>
+      <c r="G12" s="52"/>
+      <c r="H12" s="52"/>
+      <c r="I12" s="52"/>
+      <c r="J12" s="52"/>
+      <c r="K12" s="52"/>
+      <c r="L12" s="52"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3948,11 +3954,11 @@
       <c r="D1" s="33"/>
     </row>
     <row r="3" spans="1:14">
-      <c r="B3" s="51" t="s">
+      <c r="B3" s="54" t="s">
         <v>168</v>
       </c>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
     </row>
     <row r="6" spans="1:14">
       <c r="B6" t="s">
@@ -4280,27 +4286,27 @@
       <c r="P2" s="68"/>
     </row>
     <row r="3" spans="1:22" ht="15" customHeight="1">
-      <c r="A3" s="48" t="s">
+      <c r="A3" s="51" t="s">
         <v>183</v>
       </c>
-      <c r="B3" s="48"/>
-      <c r="C3" s="48"/>
-      <c r="D3" s="48"/>
-      <c r="E3" s="48"/>
-      <c r="F3" s="48"/>
-      <c r="G3" s="48"/>
+      <c r="B3" s="51"/>
+      <c r="C3" s="51"/>
+      <c r="D3" s="51"/>
+      <c r="E3" s="51"/>
+      <c r="F3" s="51"/>
+      <c r="G3" s="51"/>
       <c r="N3" s="68"/>
       <c r="O3" s="68"/>
       <c r="P3" s="68"/>
     </row>
     <row r="4" spans="1:22">
-      <c r="A4" s="48"/>
-      <c r="B4" s="48"/>
-      <c r="C4" s="48"/>
-      <c r="D4" s="48"/>
-      <c r="E4" s="48"/>
-      <c r="F4" s="48"/>
-      <c r="G4" s="48"/>
+      <c r="A4" s="51"/>
+      <c r="B4" s="51"/>
+      <c r="C4" s="51"/>
+      <c r="D4" s="51"/>
+      <c r="E4" s="51"/>
+      <c r="F4" s="51"/>
+      <c r="G4" s="51"/>
       <c r="T4" s="66" t="s">
         <v>185</v>
       </c>
@@ -4312,13 +4318,13 @@
       </c>
     </row>
     <row r="5" spans="1:22">
-      <c r="A5" s="48"/>
-      <c r="B5" s="48"/>
-      <c r="C5" s="48"/>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
+      <c r="A5" s="51"/>
+      <c r="B5" s="51"/>
+      <c r="C5" s="51"/>
+      <c r="D5" s="51"/>
+      <c r="E5" s="51"/>
+      <c r="F5" s="51"/>
+      <c r="G5" s="51"/>
       <c r="T5" s="67"/>
       <c r="U5" t="s">
         <v>188</v>
@@ -4328,13 +4334,13 @@
       </c>
     </row>
     <row r="6" spans="1:22">
-      <c r="A6" s="48"/>
-      <c r="B6" s="48"/>
-      <c r="C6" s="48"/>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="48"/>
-      <c r="G6" s="48"/>
+      <c r="A6" s="51"/>
+      <c r="B6" s="51"/>
+      <c r="C6" s="51"/>
+      <c r="D6" s="51"/>
+      <c r="E6" s="51"/>
+      <c r="F6" s="51"/>
+      <c r="G6" s="51"/>
       <c r="T6" s="67"/>
       <c r="U6" t="s">
         <v>189</v>
@@ -4344,22 +4350,22 @@
       </c>
     </row>
     <row r="7" spans="1:22">
-      <c r="A7" s="48"/>
-      <c r="B7" s="48"/>
-      <c r="C7" s="48"/>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="48"/>
-      <c r="G7" s="48"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51"/>
     </row>
     <row r="8" spans="1:22">
-      <c r="A8" s="48"/>
-      <c r="B8" s="48"/>
-      <c r="C8" s="48"/>
-      <c r="D8" s="48"/>
-      <c r="E8" s="48"/>
-      <c r="F8" s="48"/>
-      <c r="G8" s="48"/>
+      <c r="A8" s="51"/>
+      <c r="B8" s="51"/>
+      <c r="C8" s="51"/>
+      <c r="D8" s="51"/>
+      <c r="E8" s="51"/>
+      <c r="F8" s="51"/>
+      <c r="G8" s="51"/>
       <c r="T8" s="68" t="s">
         <v>186</v>
       </c>
@@ -4372,23 +4378,23 @@
       </c>
     </row>
     <row r="9" spans="1:22">
-      <c r="A9" s="48"/>
-      <c r="B9" s="48"/>
-      <c r="C9" s="48"/>
-      <c r="D9" s="48"/>
-      <c r="E9" s="48"/>
-      <c r="F9" s="48"/>
-      <c r="G9" s="48"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="51"/>
+      <c r="C9" s="51"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
+      <c r="F9" s="51"/>
+      <c r="G9" s="51"/>
       <c r="T9" s="68"/>
     </row>
     <row r="10" spans="1:22">
-      <c r="A10" s="48"/>
-      <c r="B10" s="48"/>
-      <c r="C10" s="48"/>
-      <c r="D10" s="48"/>
-      <c r="E10" s="48"/>
-      <c r="F10" s="48"/>
-      <c r="G10" s="48"/>
+      <c r="A10" s="51"/>
+      <c r="B10" s="51"/>
+      <c r="C10" s="51"/>
+      <c r="D10" s="51"/>
+      <c r="E10" s="51"/>
+      <c r="F10" s="51"/>
+      <c r="G10" s="51"/>
       <c r="U10" s="16" t="s">
         <v>191</v>
       </c>
@@ -4398,58 +4404,58 @@
       </c>
     </row>
     <row r="11" spans="1:22">
-      <c r="A11" s="48"/>
-      <c r="B11" s="48"/>
-      <c r="C11" s="48"/>
-      <c r="D11" s="48"/>
-      <c r="E11" s="48"/>
-      <c r="F11" s="48"/>
-      <c r="G11" s="48"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="51"/>
+      <c r="C11" s="51"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
+      <c r="F11" s="51"/>
+      <c r="G11" s="51"/>
     </row>
     <row r="12" spans="1:22">
-      <c r="A12" s="48"/>
-      <c r="B12" s="48"/>
-      <c r="C12" s="48"/>
-      <c r="D12" s="48"/>
-      <c r="E12" s="48"/>
-      <c r="F12" s="48"/>
-      <c r="G12" s="48"/>
+      <c r="A12" s="51"/>
+      <c r="B12" s="51"/>
+      <c r="C12" s="51"/>
+      <c r="D12" s="51"/>
+      <c r="E12" s="51"/>
+      <c r="F12" s="51"/>
+      <c r="G12" s="51"/>
     </row>
     <row r="13" spans="1:22">
-      <c r="A13" s="48"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="48"/>
-      <c r="D13" s="48"/>
-      <c r="E13" s="48"/>
-      <c r="F13" s="48"/>
-      <c r="G13" s="48"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="51"/>
+      <c r="C13" s="51"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
+      <c r="F13" s="51"/>
+      <c r="G13" s="51"/>
     </row>
     <row r="14" spans="1:22">
-      <c r="A14" s="48"/>
-      <c r="B14" s="48"/>
-      <c r="C14" s="48"/>
-      <c r="D14" s="48"/>
-      <c r="E14" s="48"/>
-      <c r="F14" s="48"/>
-      <c r="G14" s="48"/>
+      <c r="A14" s="51"/>
+      <c r="B14" s="51"/>
+      <c r="C14" s="51"/>
+      <c r="D14" s="51"/>
+      <c r="E14" s="51"/>
+      <c r="F14" s="51"/>
+      <c r="G14" s="51"/>
     </row>
     <row r="15" spans="1:22">
-      <c r="A15" s="48"/>
-      <c r="B15" s="48"/>
-      <c r="C15" s="48"/>
-      <c r="D15" s="48"/>
-      <c r="E15" s="48"/>
-      <c r="F15" s="48"/>
-      <c r="G15" s="48"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="51"/>
+      <c r="C15" s="51"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="51"/>
+      <c r="F15" s="51"/>
+      <c r="G15" s="51"/>
     </row>
     <row r="16" spans="1:22">
-      <c r="A16" s="48"/>
-      <c r="B16" s="48"/>
-      <c r="C16" s="48"/>
-      <c r="D16" s="48"/>
-      <c r="E16" s="48"/>
-      <c r="F16" s="48"/>
-      <c r="G16" s="48"/>
+      <c r="A16" s="51"/>
+      <c r="B16" s="51"/>
+      <c r="C16" s="51"/>
+      <c r="D16" s="51"/>
+      <c r="E16" s="51"/>
+      <c r="F16" s="51"/>
+      <c r="G16" s="51"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -4468,7 +4474,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
@@ -4499,12 +4505,12 @@
       </c>
     </row>
     <row r="3" spans="1:14">
-      <c r="C3" s="51" t="s">
+      <c r="C3" s="54" t="s">
         <v>193</v>
       </c>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
       <c r="N3" t="s">
         <v>206</v>
       </c>
@@ -4869,10 +4875,10 @@
 
 <file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I32" sqref="I32"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -4918,6 +4924,16 @@
       </c>
       <c r="D3" t="s">
         <v>225</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4">
+      <c r="D7" t="s">
+        <v>290</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4">
+      <c r="D8" t="s">
+        <v>291</v>
       </c>
     </row>
   </sheetData>
@@ -4964,111 +4980,111 @@
       <c r="A3" s="81" t="s">
         <v>230</v>
       </c>
-      <c r="B3" s="51"/>
-      <c r="C3" s="51"/>
-      <c r="D3" s="51"/>
-      <c r="E3" s="51"/>
-      <c r="F3" s="51"/>
-      <c r="G3" s="51"/>
+      <c r="B3" s="54"/>
+      <c r="C3" s="54"/>
+      <c r="D3" s="54"/>
+      <c r="E3" s="54"/>
+      <c r="F3" s="54"/>
+      <c r="G3" s="54"/>
     </row>
     <row r="4" spans="1:7">
-      <c r="A4" s="51"/>
-      <c r="B4" s="51"/>
-      <c r="C4" s="51"/>
-      <c r="D4" s="51"/>
-      <c r="E4" s="51"/>
-      <c r="F4" s="51"/>
-      <c r="G4" s="51"/>
+      <c r="A4" s="54"/>
+      <c r="B4" s="54"/>
+      <c r="C4" s="54"/>
+      <c r="D4" s="54"/>
+      <c r="E4" s="54"/>
+      <c r="F4" s="54"/>
+      <c r="G4" s="54"/>
     </row>
     <row r="5" spans="1:7">
-      <c r="A5" s="51"/>
-      <c r="B5" s="51"/>
-      <c r="C5" s="51"/>
-      <c r="D5" s="51"/>
-      <c r="E5" s="51"/>
-      <c r="F5" s="51"/>
-      <c r="G5" s="51"/>
+      <c r="A5" s="54"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="54"/>
+      <c r="D5" s="54"/>
+      <c r="E5" s="54"/>
+      <c r="F5" s="54"/>
+      <c r="G5" s="54"/>
     </row>
     <row r="6" spans="1:7">
-      <c r="A6" s="51"/>
-      <c r="B6" s="51"/>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51"/>
-      <c r="E6" s="51"/>
-      <c r="F6" s="51"/>
-      <c r="G6" s="51"/>
+      <c r="A6" s="54"/>
+      <c r="B6" s="54"/>
+      <c r="C6" s="54"/>
+      <c r="D6" s="54"/>
+      <c r="E6" s="54"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="54"/>
     </row>
     <row r="7" spans="1:7">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
-      <c r="F7" s="51"/>
-      <c r="G7" s="51"/>
+      <c r="A7" s="54"/>
+      <c r="B7" s="54"/>
+      <c r="C7" s="54"/>
+      <c r="D7" s="54"/>
+      <c r="E7" s="54"/>
+      <c r="F7" s="54"/>
+      <c r="G7" s="54"/>
     </row>
     <row r="8" spans="1:7">
-      <c r="A8" s="51"/>
-      <c r="B8" s="51"/>
-      <c r="C8" s="51"/>
-      <c r="D8" s="51"/>
-      <c r="E8" s="51"/>
-      <c r="F8" s="51"/>
-      <c r="G8" s="51"/>
+      <c r="A8" s="54"/>
+      <c r="B8" s="54"/>
+      <c r="C8" s="54"/>
+      <c r="D8" s="54"/>
+      <c r="E8" s="54"/>
+      <c r="F8" s="54"/>
+      <c r="G8" s="54"/>
     </row>
     <row r="9" spans="1:7">
-      <c r="A9" s="51"/>
-      <c r="B9" s="51"/>
-      <c r="C9" s="51"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
-      <c r="F9" s="51"/>
-      <c r="G9" s="51"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="54"/>
+      <c r="C9" s="54"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
+      <c r="F9" s="54"/>
+      <c r="G9" s="54"/>
     </row>
     <row r="10" spans="1:7">
-      <c r="A10" s="51"/>
-      <c r="B10" s="51"/>
-      <c r="C10" s="51"/>
-      <c r="D10" s="51"/>
-      <c r="E10" s="51"/>
-      <c r="F10" s="51"/>
-      <c r="G10" s="51"/>
+      <c r="A10" s="54"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="54"/>
+      <c r="D10" s="54"/>
+      <c r="E10" s="54"/>
+      <c r="F10" s="54"/>
+      <c r="G10" s="54"/>
     </row>
     <row r="11" spans="1:7">
-      <c r="A11" s="51"/>
-      <c r="B11" s="51"/>
-      <c r="C11" s="51"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
-      <c r="F11" s="51"/>
-      <c r="G11" s="51"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="54"/>
+      <c r="C11" s="54"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
+      <c r="F11" s="54"/>
+      <c r="G11" s="54"/>
     </row>
     <row r="12" spans="1:7">
-      <c r="A12" s="51"/>
-      <c r="B12" s="51"/>
-      <c r="C12" s="51"/>
-      <c r="D12" s="51"/>
-      <c r="E12" s="51"/>
-      <c r="F12" s="51"/>
-      <c r="G12" s="51"/>
+      <c r="A12" s="54"/>
+      <c r="B12" s="54"/>
+      <c r="C12" s="54"/>
+      <c r="D12" s="54"/>
+      <c r="E12" s="54"/>
+      <c r="F12" s="54"/>
+      <c r="G12" s="54"/>
     </row>
     <row r="13" spans="1:7">
-      <c r="A13" s="51"/>
-      <c r="B13" s="51"/>
-      <c r="C13" s="51"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
-      <c r="F13" s="51"/>
-      <c r="G13" s="51"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="54"/>
+      <c r="C13" s="54"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
+      <c r="F13" s="54"/>
+      <c r="G13" s="54"/>
     </row>
     <row r="14" spans="1:7">
-      <c r="A14" s="51"/>
-      <c r="B14" s="51"/>
-      <c r="C14" s="51"/>
-      <c r="D14" s="51"/>
-      <c r="E14" s="51"/>
-      <c r="F14" s="51"/>
-      <c r="G14" s="51"/>
+      <c r="A14" s="54"/>
+      <c r="B14" s="54"/>
+      <c r="C14" s="54"/>
+      <c r="D14" s="54"/>
+      <c r="E14" s="54"/>
+      <c r="F14" s="54"/>
+      <c r="G14" s="54"/>
     </row>
     <row r="17" spans="7:10">
       <c r="G17" s="12" t="s">
@@ -7619,27 +7635,27 @@
       <c r="A3" s="37" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="46" t="s">
+      <c r="B3" s="45" t="s">
         <v>10</v>
       </c>
-      <c r="C3" s="47"/>
-      <c r="D3" s="47"/>
-      <c r="E3" s="47"/>
-      <c r="F3" s="47"/>
-      <c r="G3" s="47"/>
-      <c r="H3" s="47"/>
-      <c r="I3" s="47"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="46"/>
+      <c r="F3" s="46"/>
+      <c r="G3" s="46"/>
+      <c r="H3" s="46"/>
+      <c r="I3" s="46"/>
     </row>
     <row r="4" spans="1:18">
       <c r="A4" s="36"/>
-      <c r="B4" s="47"/>
-      <c r="C4" s="47"/>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="47"/>
-      <c r="G4" s="47"/>
-      <c r="H4" s="47"/>
-      <c r="I4" s="47"/>
+      <c r="B4" s="46"/>
+      <c r="C4" s="46"/>
+      <c r="D4" s="46"/>
+      <c r="E4" s="46"/>
+      <c r="F4" s="46"/>
+      <c r="G4" s="46"/>
+      <c r="H4" s="46"/>
+      <c r="I4" s="46"/>
       <c r="O4">
         <v>123456789</v>
       </c>
@@ -7652,17 +7668,17 @@
     </row>
     <row r="5" spans="1:18">
       <c r="A5" s="36"/>
-      <c r="B5" s="47"/>
-      <c r="C5" s="47"/>
-      <c r="D5" s="47"/>
-      <c r="E5" s="47"/>
-      <c r="F5" s="47"/>
-      <c r="G5" s="47"/>
-      <c r="H5" s="47"/>
-      <c r="I5" s="47"/>
+      <c r="B5" s="46"/>
+      <c r="C5" s="46"/>
+      <c r="D5" s="46"/>
+      <c r="E5" s="46"/>
+      <c r="F5" s="46"/>
+      <c r="G5" s="46"/>
+      <c r="H5" s="46"/>
+      <c r="I5" s="46"/>
     </row>
     <row r="6" spans="1:18">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="47" t="s">
         <v>12</v>
       </c>
       <c r="B6" s="1">
@@ -7671,16 +7687,16 @@
       <c r="C6">
         <v>6</v>
       </c>
-      <c r="E6" s="54" t="s">
+      <c r="E6" s="49" t="s">
         <v>13</v>
       </c>
-      <c r="F6" s="54"/>
-      <c r="G6" s="54"/>
-      <c r="H6" s="54"/>
-      <c r="I6" s="54"/>
+      <c r="F6" s="49"/>
+      <c r="G6" s="49"/>
+      <c r="H6" s="49"/>
+      <c r="I6" s="49"/>
     </row>
     <row r="7" spans="1:18">
-      <c r="A7" s="53"/>
+      <c r="A7" s="48"/>
       <c r="B7">
         <v>2</v>
       </c>
@@ -7704,7 +7720,7 @@
       </c>
     </row>
     <row r="8" spans="1:18">
-      <c r="A8" s="53"/>
+      <c r="A8" s="48"/>
       <c r="B8">
         <v>3</v>
       </c>
@@ -7728,7 +7744,7 @@
       </c>
     </row>
     <row r="9" spans="1:18">
-      <c r="A9" s="53"/>
+      <c r="A9" s="48"/>
       <c r="B9">
         <v>4</v>
       </c>
@@ -7737,7 +7753,7 @@
       </c>
     </row>
     <row r="10" spans="1:18">
-      <c r="A10" s="53"/>
+      <c r="A10" s="48"/>
       <c r="B10">
         <v>5</v>
       </c>
@@ -7826,20 +7842,20 @@
       <c r="C15" s="33"/>
       <c r="D15" s="33"/>
       <c r="E15" s="33"/>
-      <c r="F15" s="50" t="s">
+      <c r="F15" s="53" t="s">
         <v>37</v>
       </c>
-      <c r="G15" s="51" t="s">
+      <c r="G15" s="54" t="s">
         <v>38</v>
       </c>
-      <c r="H15" s="45" t="s">
+      <c r="H15" s="50" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:18">
-      <c r="F16" s="50"/>
-      <c r="G16" s="51"/>
-      <c r="H16" s="45"/>
+      <c r="F16" s="53"/>
+      <c r="G16" s="54"/>
+      <c r="H16" s="50"/>
       <c r="O16" t="s">
         <v>41</v>
       </c>
@@ -7851,15 +7867,15 @@
       </c>
     </row>
     <row r="17" spans="1:17">
-      <c r="A17" s="46" t="s">
+      <c r="A17" s="45" t="s">
         <v>16</v>
       </c>
-      <c r="B17" s="48" t="s">
+      <c r="B17" s="51" t="s">
         <v>36</v>
       </c>
-      <c r="C17" s="49"/>
-      <c r="D17" s="49"/>
-      <c r="E17" s="49"/>
+      <c r="C17" s="52"/>
+      <c r="D17" s="52"/>
+      <c r="E17" s="52"/>
       <c r="F17" t="s">
         <v>17</v>
       </c>
@@ -7880,11 +7896,11 @@
       </c>
     </row>
     <row r="18" spans="1:17">
-      <c r="A18" s="47"/>
-      <c r="B18" s="49"/>
-      <c r="C18" s="49"/>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
+      <c r="A18" s="46"/>
+      <c r="B18" s="52"/>
+      <c r="C18" s="52"/>
+      <c r="D18" s="52"/>
+      <c r="E18" s="52"/>
       <c r="F18" t="s">
         <v>18</v>
       </c>
@@ -7905,11 +7921,11 @@
       </c>
     </row>
     <row r="19" spans="1:17">
-      <c r="A19" s="47"/>
-      <c r="B19" s="49"/>
-      <c r="C19" s="49"/>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
+      <c r="A19" s="46"/>
+      <c r="B19" s="52"/>
+      <c r="C19" s="52"/>
+      <c r="D19" s="52"/>
+      <c r="E19" s="52"/>
       <c r="F19" t="s">
         <v>19</v>
       </c>
@@ -8122,11 +8138,6 @@
     </row>
   </sheetData>
   <mergeCells count="12">
-    <mergeCell ref="A1:I1"/>
-    <mergeCell ref="A3:A5"/>
-    <mergeCell ref="B3:I5"/>
-    <mergeCell ref="A6:A10"/>
-    <mergeCell ref="E6:I6"/>
     <mergeCell ref="H15:H16"/>
     <mergeCell ref="A13:E13"/>
     <mergeCell ref="A15:E15"/>
@@ -8134,6 +8145,11 @@
     <mergeCell ref="B17:E19"/>
     <mergeCell ref="F15:F16"/>
     <mergeCell ref="G15:G16"/>
+    <mergeCell ref="A1:I1"/>
+    <mergeCell ref="A3:A5"/>
+    <mergeCell ref="B3:I5"/>
+    <mergeCell ref="A6:A10"/>
+    <mergeCell ref="E6:I6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -8979,7 +8995,7 @@
       </c>
       <c r="D6" s="14">
         <f ca="1">TODAY()</f>
-        <v>44705</v>
+        <v>44706</v>
       </c>
       <c r="H6" s="67"/>
       <c r="I6" s="67"/>
@@ -8993,7 +9009,7 @@
       </c>
       <c r="D7" s="15">
         <f ca="1">NOW()</f>
-        <v>44705.757337731484</v>
+        <v>44706.719570023146</v>
       </c>
       <c r="H7" s="67"/>
       <c r="I7" s="67"/>
@@ -9123,11 +9139,11 @@
         <v>106</v>
       </c>
       <c r="H3" s="20"/>
-      <c r="J3" s="48" t="s">
+      <c r="J3" s="51" t="s">
         <v>116</v>
       </c>
-      <c r="K3" s="49"/>
-      <c r="L3" s="49"/>
+      <c r="K3" s="52"/>
+      <c r="L3" s="52"/>
     </row>
     <row r="4" spans="1:12">
       <c r="C4" s="17" t="s">
@@ -9143,9 +9159,9 @@
         <f>SUM(D5:D7)</f>
         <v>71</v>
       </c>
-      <c r="J4" s="49"/>
-      <c r="K4" s="49"/>
-      <c r="L4" s="49"/>
+      <c r="J4" s="52"/>
+      <c r="K4" s="52"/>
+      <c r="L4" s="52"/>
     </row>
     <row r="5" spans="1:12">
       <c r="C5" t="s">
@@ -9161,9 +9177,9 @@
         <f>MIN(D5:D10)</f>
         <v>23</v>
       </c>
-      <c r="J5" s="49"/>
-      <c r="K5" s="49"/>
-      <c r="L5" s="49"/>
+      <c r="J5" s="52"/>
+      <c r="K5" s="52"/>
+      <c r="L5" s="52"/>
     </row>
     <row r="6" spans="1:12">
       <c r="C6" t="s">
@@ -9179,9 +9195,9 @@
         <f>MAX(D5:D10)</f>
         <v>25</v>
       </c>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
+      <c r="J6" s="52"/>
+      <c r="K6" s="52"/>
+      <c r="L6" s="52"/>
     </row>
     <row r="7" spans="1:12">
       <c r="C7" t="s">
@@ -9197,9 +9213,9 @@
         <f>AVERAGE(D5:D10)</f>
         <v>23.5</v>
       </c>
-      <c r="J7" s="49"/>
-      <c r="K7" s="49"/>
-      <c r="L7" s="49"/>
+      <c r="J7" s="52"/>
+      <c r="K7" s="52"/>
+      <c r="L7" s="52"/>
     </row>
     <row r="8" spans="1:12">
       <c r="G8" s="18" t="s">
@@ -9209,9 +9225,9 @@
         <f>COUNT(C5:C10,D5:D10)</f>
         <v>4</v>
       </c>
-      <c r="J8" s="49"/>
-      <c r="K8" s="49"/>
-      <c r="L8" s="49"/>
+      <c r="J8" s="52"/>
+      <c r="K8" s="52"/>
+      <c r="L8" s="52"/>
     </row>
     <row r="9" spans="1:12">
       <c r="G9" s="18" t="s">
@@ -9221,9 +9237,9 @@
         <f>COUNTA(C5:C10,D5:D10)</f>
         <v>8</v>
       </c>
-      <c r="J9" s="49"/>
-      <c r="K9" s="49"/>
-      <c r="L9" s="49"/>
+      <c r="J9" s="52"/>
+      <c r="K9" s="52"/>
+      <c r="L9" s="52"/>
     </row>
     <row r="10" spans="1:12">
       <c r="C10" t="s">
@@ -9239,9 +9255,9 @@
         <f>COUNTBLANK(D5:D10)</f>
         <v>2</v>
       </c>
-      <c r="J10" s="49"/>
-      <c r="K10" s="49"/>
-      <c r="L10" s="49"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="52"/>
     </row>
     <row r="11" spans="1:12">
       <c r="D11">
@@ -9254,9 +9270,9 @@
         <f>SMALL(D5:D10,3)</f>
         <v>23</v>
       </c>
-      <c r="J11" s="49"/>
-      <c r="K11" s="49"/>
-      <c r="L11" s="49"/>
+      <c r="J11" s="52"/>
+      <c r="K11" s="52"/>
+      <c r="L11" s="52"/>
     </row>
     <row r="12" spans="1:12">
       <c r="D12">
